--- a/php/lab4_php/test.xlsx
+++ b/php/lab4_php/test.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="13740"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Лист1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -657,31 +657,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -692,7 +689,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -704,34 +708,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -764,79 +786,79 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -857,54 +879,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -914,7 +935,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -923,7 +944,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -932,7 +953,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -940,10 +961,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -972,7 +993,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -985,13 +1006,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -1010,334 +1030,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="3"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="1" max="1" style="6" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="62.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="45.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39.75">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="177">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="142.5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="15.75">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="15.75">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="15.75">
+      <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="15.75">
+      <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="15.75">
+      <c r="A10" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="15.75">
+      <c r="A11" s="5">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="15.75">
+      <c r="A12" s="5">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="15.75">
+      <c r="A13" s="5">
         <v>7</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="15.75">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="15.75">
+      <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="131.25">
+      <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="32.25">
+      <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="43.5">
+      <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="15.75">
+      <c r="A19" s="5">
         <v>5</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="15.75">
+      <c r="A20" s="5">
         <v>6</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="15.75">
+      <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="155.25">
+      <c r="A22" s="5">
         <v>1</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="283.5">
+      <c r="A23" s="5">
         <v>2</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="92.25">
+      <c r="A24" s="5">
         <v>3</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="90">
+      <c r="A25" s="5">
         <v>4</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="C25" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="702">
+      <c r="A26" s="5">
         <v>5</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="134.25">
+      <c r="A27" s="5">
         <v>6</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="203.25">
+      <c r="A28" s="5">
         <v>7</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="228">
+      <c r="A29" s="5">
         <v>8</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="73.5">
+      <c r="A30" s="5">
         <v>9</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="73.5">
+      <c r="A31" s="5">
         <v>10</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="65.25">
+      <c r="A32" s="5">
         <v>11</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/php/lab4_php/test.xlsx
+++ b/php/lab4_php/test.xlsx
@@ -61,12 +61,12 @@
 FDC2F394        21.04.2018 12:14:23
 FDC2F395        21.05.2018 13:44:23
 FDC2F396        21.06.2018 10:15:23
-FDC2F390        21.07.2018 14:44:23
+FDC2F39        21.07.2018 14:44:23
 FDC2F397        21.08.2018 18:44:23
 FDC2F398        21.09.2018 22:44:23
 FDC2F399        21.03.2018 09:44:23
-FDC2F39B        21.02.2018 06:44:23
-FDC2F39C        21.10.2018 19:44:23</t>
+FDC2F3910       21.02.2018 06:44:23
+FDC2F3911        21.10.2018 19:44:23</t>
   </si>
   <si>
     <t>1 FDC2F391 21.02.2018 10:44:00
@@ -659,7 +659,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,13 +670,19 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -714,12 +720,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -729,7 +735,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">

--- a/php/lab4_php/test.xlsx
+++ b/php/lab4_php/test.xlsx
@@ -659,7 +659,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,6 +677,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -719,13 +725,13 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -1100,7 +1106,7 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="110.25">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="63">
       <c r="A19" s="5">
         <v>5</v>
       </c>
@@ -1239,7 +1245,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="177">
       <c r="A20" s="5">
         <v>6</v>
       </c>
@@ -1250,14 +1256,14 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="155.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="131.25">
       <c r="A22" s="5">
         <v>1</v>
       </c>
@@ -1268,7 +1274,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="283.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="279.75">
       <c r="A23" s="5">
         <v>2</v>
       </c>
